--- a/AAII_Financials/Quarterly/SAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>SAI</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,8 +711,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,8 +743,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,8 +775,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +823,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +917,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,25 +962,26 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="H17" s="3">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -965,8 +992,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -974,16 +1004,16 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+      <c r="H18" s="3">
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -994,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,8 +1040,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1024,8 +1058,8 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1036,22 +1070,25 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+      <c r="G21" s="3">
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1065,8 +1102,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,25 +1134,28 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="H23" s="3">
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1123,8 +1166,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1152,8 +1198,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,25 +1230,28 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1210,25 +1262,28 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4600</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1239,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,8 +1422,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1372,8 +1442,8 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1384,25 +1454,28 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4600</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,25 +1518,28 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4600</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1471,31 +1550,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1587,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,25 +1617,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1560,8 +1647,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,8 +1679,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1618,8 +1711,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,22 +1743,25 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1676,8 +1775,11 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1685,16 +1787,16 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+      <c r="H46" s="3">
+        <v>0</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1705,8 +1807,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1719,8 +1824,8 @@
       <c r="F47" s="3">
         <v>44900</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>44900</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1734,8 +1839,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1763,8 +1871,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +1903,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,8 +1967,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1864,12 +1984,12 @@
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,8 +1999,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,8 +2031,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1917,17 +2043,17 @@
         <v>45000</v>
       </c>
       <c r="E54" s="3">
+        <v>45000</v>
+      </c>
+      <c r="F54" s="3">
         <v>45100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>45600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,23 +2093,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,26 +2123,29 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2155,11 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2035,12 +2172,12 @@
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,16 +2187,19 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
-      </c>
-      <c r="E60" s="3">
-        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
@@ -2067,8 +2207,8 @@
       <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+      <c r="H60" s="3">
+        <v>300</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2079,8 +2219,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2108,8 +2251,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2122,8 +2268,8 @@
       <c r="F62" s="3">
         <v>1600</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>1600</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,26 +2379,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1900</v>
       </c>
       <c r="F66" s="3">
         <v>1900</v>
       </c>
       <c r="G66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2336,11 +2504,11 @@
         <v>44900</v>
       </c>
       <c r="F70" s="3">
+        <v>44900</v>
+      </c>
+      <c r="G70" s="3">
         <v>38700</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2353,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,25 +2553,28 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1700</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
       <c r="G72" s="3">
         <v>0</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,25 +2681,28 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5000</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,31 +2745,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,25 +2782,28 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4600</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2619,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,8 +2830,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2661,8 +2860,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,25 +3020,28 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2835,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,8 +3068,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2877,8 +3098,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,23 +3162,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-44900</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,8 +3194,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,25 +3336,28 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>45600</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3122,8 +3368,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,8 +3400,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3160,16 +3412,16 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3178,6 +3430,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
   <si>
     <t>SAI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,31 +715,34 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>8000</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -746,13 +750,16 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>4800</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -763,8 +770,8 @@
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+      <c r="H9" s="3">
+        <v>6800</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -778,13 +785,16 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>600</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -795,8 +805,8 @@
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+      <c r="H10" s="3">
+        <v>1200</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -810,8 +820,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,13 +837,14 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>100</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>3</v>
@@ -841,8 +855,8 @@
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+      <c r="H12" s="3">
+        <v>200</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -856,8 +870,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,31 +905,34 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -920,8 +940,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +975,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,28 +989,29 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>8200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -995,25 +1022,28 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
+      <c r="D18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1027,8 +1057,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,22 +1074,23 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1073,8 +1107,11 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1084,14 +1121,14 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1105,8 +1142,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1137,28 +1177,31 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1169,31 +1212,34 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1201,8 +1247,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,28 +1282,31 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1265,28 +1317,31 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
-        <v>-4600</v>
-      </c>
       <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-4700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1297,8 +1352,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1387,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1422,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1457,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,22 +1492,25 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1457,28 +1527,31 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
-        <v>-4600</v>
-      </c>
       <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-4700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1489,8 +1562,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,28 +1597,31 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
-        <v>-4600</v>
-      </c>
       <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-4700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1553,34 +1632,37 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1672,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1689,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,28 +1704,29 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1650,8 +1737,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1682,31 +1772,34 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -1714,31 +1807,34 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1746,25 +1842,28 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1778,28 +1877,31 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>22700</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+      <c r="I46" s="3">
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1810,13 +1912,16 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>44900</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
         <v>44900</v>
@@ -1827,8 +1932,8 @@
       <c r="G47" s="3">
         <v>44900</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>44900</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1842,31 +1947,34 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>3600</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -1874,31 +1982,34 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -1906,8 +2017,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2052,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,8 +2087,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1987,12 +2107,12 @@
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2122,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,29 +2157,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>45000</v>
+        <v>26500</v>
       </c>
       <c r="E54" s="3">
         <v>45000</v>
       </c>
       <c r="F54" s="3">
+        <v>45000</v>
+      </c>
+      <c r="G54" s="3">
         <v>45100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>45600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2066,8 +2192,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2209,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,26 +2224,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,29 +2257,32 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2158,13 +2292,16 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>400</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -2175,12 +2312,12 @@
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,19 +2327,22 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
@@ -2210,8 +2350,8 @@
       <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+      <c r="I60" s="3">
+        <v>300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2222,8 +2362,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2254,13 +2397,16 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>1600</v>
@@ -2271,8 +2417,8 @@
       <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>1600</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2286,8 +2432,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2467,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2502,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,29 +2537,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1900</v>
       </c>
       <c r="G66" s="3">
         <v>1900</v>
       </c>
       <c r="H66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2572,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2589,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2622,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,13 +2657,16 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>44900</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>44900</v>
@@ -2507,11 +2675,11 @@
         <v>44900</v>
       </c>
       <c r="G70" s="3">
+        <v>44900</v>
+      </c>
+      <c r="H70" s="3">
         <v>38700</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2524,8 +2692,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,28 +2727,31 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1700</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2588,8 +2762,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2797,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2832,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,28 +2867,31 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5000</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2716,8 +2902,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,34 +2937,37 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2785,28 +2977,31 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
-        <v>-4600</v>
-      </c>
       <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-4700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2817,8 +3012,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,8 +3029,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2863,8 +3062,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3097,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3132,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3167,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3202,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,22 +3237,25 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-100</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
+        <v>700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -3055,8 +3272,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,8 +3289,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3101,8 +3322,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3357,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,26 +3392,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
         <v>-44900</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +3427,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3444,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3477,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3512,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3547,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,26 +3582,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>200</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>45600</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3371,8 +3617,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3403,26 +3652,29 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3433,6 +3685,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="92">
   <si>
     <t>SAI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -718,34 +719,37 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>5400</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3">
         <v>8000</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -753,29 +757,32 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
         <v>4800</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3">
         <v>6800</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -788,29 +795,32 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3">
         <v>1200</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -823,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,29 +851,30 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,34 +925,37 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -943,8 +963,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1001,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,31 +1016,32 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E17" s="3">
         <v>7800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8200</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1025,29 +1052,32 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2400</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1060,8 +1090,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,28 +1108,29 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1110,8 +1144,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1127,12 +1164,12 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,8 +1182,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1180,31 +1220,34 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1215,16 +1258,19 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1232,17 +1278,17 @@
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1250,8 +1296,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,31 +1334,34 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1320,31 +1372,34 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4700</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1355,8 +1410,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,28 +1562,31 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1530,31 +1600,34 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4700</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1565,8 +1638,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,31 +1676,34 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4700</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1635,37 +1714,40 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1675,8 +1757,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,31 +1791,32 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="3">
         <v>16500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1740,8 +1827,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,17 +1865,20 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1801,8 +1894,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -1810,17 +1903,20 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1836,8 +1932,8 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1845,28 +1941,31 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
         <v>5300</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1880,31 +1979,34 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E46" s="3">
         <v>22700</v>
-      </c>
-      <c r="E46" s="3">
-        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1915,16 +2017,19 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>44900</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
         <v>44900</v>
@@ -1935,8 +2040,8 @@
       <c r="H47" s="3">
         <v>44900</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>44900</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1950,17 +2055,20 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3">
         <v>3600</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1976,8 +2084,8 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -1985,17 +2093,20 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3">
         <v>200</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,8 +2122,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2020,8 +2131,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,8 +2207,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2110,12 +2230,12 @@
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2245,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,32 +2283,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E54" s="3">
         <v>26500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>45000</v>
       </c>
       <c r="F54" s="3">
         <v>45000</v>
       </c>
       <c r="G54" s="3">
+        <v>45000</v>
+      </c>
+      <c r="H54" s="3">
         <v>45100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>45600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,29 +2355,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,32 +2391,35 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2295,17 +2429,20 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2315,12 +2452,12 @@
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,22 +2467,25 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
@@ -2353,8 +2493,8 @@
       <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+      <c r="J60" s="3">
+        <v>300</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2365,8 +2505,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2400,16 +2543,19 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1600</v>
       </c>
       <c r="F62" s="3">
         <v>1600</v>
@@ -2420,8 +2566,8 @@
       <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>1600</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2435,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,8 +2695,11 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2549,23 +2707,23 @@
         <v>800</v>
       </c>
       <c r="E66" s="3">
+        <v>800</v>
+      </c>
+      <c r="F66" s="3">
         <v>3800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1900</v>
       </c>
       <c r="H66" s="3">
         <v>1900</v>
       </c>
       <c r="I66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2669,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>44900</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>44900</v>
@@ -2678,11 +2846,11 @@
         <v>44900</v>
       </c>
       <c r="H70" s="3">
+        <v>44900</v>
+      </c>
+      <c r="I70" s="3">
         <v>38700</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2695,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,31 +2901,34 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1700</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
       <c r="I72" s="3">
         <v>0</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2765,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,31 +3053,34 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E76" s="3">
         <v>25700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5000</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2905,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,37 +3129,40 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2980,31 +3172,34 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4700</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3015,8 +3210,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3228,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3065,8 +3264,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,28 +3454,31 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3">
+      <c r="D89" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3">
         <v>700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3275,8 +3492,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,8 +3510,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3325,8 +3546,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,8 +3622,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3406,18 +3636,18 @@
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
         <v>-44900</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3430,8 +3660,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,29 +3828,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
         <v>-45600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>45600</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3620,8 +3866,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,29 +3904,32 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3688,6 +3940,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="92">
   <si>
     <t>SAI</t>
   </si>
@@ -665,13 +665,11 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -693,22 +691,22 @@
         <v>44926</v>
       </c>
       <c r="E7" s="2">
-        <v>44742</v>
+        <v>44561</v>
       </c>
       <c r="F7" s="2">
-        <v>44651</v>
+        <v>44377</v>
       </c>
       <c r="G7" s="2">
-        <v>44561</v>
+        <v>44196</v>
       </c>
       <c r="H7" s="2">
-        <v>44469</v>
-      </c>
-      <c r="I7" s="2">
-        <v>44377</v>
-      </c>
-      <c r="J7" s="2">
-        <v>44286</v>
+        <v>44012</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -727,23 +725,23 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>10600</v>
       </c>
       <c r="E8" s="3">
-        <v>5400</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F8" s="3">
         <v>8000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -765,23 +763,23 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>9500</v>
       </c>
       <c r="E9" s="3">
-        <v>4800</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F9" s="3">
         <v>6800</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -803,23 +801,23 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>1100</v>
       </c>
       <c r="E10" s="3">
-        <v>600</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3">
         <v>1200</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>900</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -857,23 +855,23 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>500</v>
       </c>
       <c r="E12" s="3">
+        <v>400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>300</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3">
-        <v>200</v>
+      <c r="I12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -933,23 +931,23 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>1000</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="F14" s="3">
         <v>100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -1023,25 +1021,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8600</v>
+        <v>18100</v>
       </c>
       <c r="E17" s="3">
-        <v>7800</v>
+        <v>33500</v>
       </c>
       <c r="F17" s="3">
-        <v>600</v>
+        <v>8100</v>
       </c>
       <c r="G17" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="H17" s="3">
-        <v>600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>8200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1060,23 +1058,23 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-7500</v>
       </c>
       <c r="E18" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1114,23 +1112,23 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-1300</v>
       </c>
       <c r="E20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1152,8 +1150,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-7200</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1167,8 +1165,8 @@
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
-        <v>-100</v>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1228,26 +1226,26 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-8800</v>
       </c>
       <c r="E23" s="3">
-        <v>-2700</v>
+        <v>-16700</v>
       </c>
       <c r="F23" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-1300</v>
+        <v>500</v>
       </c>
       <c r="H23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1266,23 +1264,23 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1342,26 +1340,26 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-8800</v>
       </c>
       <c r="E26" s="3">
-        <v>-2700</v>
+        <v>-16700</v>
       </c>
       <c r="F26" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>-1300</v>
+        <v>400</v>
       </c>
       <c r="H26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1380,26 +1378,26 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-8800</v>
       </c>
       <c r="E27" s="3">
-        <v>-2700</v>
+        <v>-16700</v>
       </c>
       <c r="F27" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>3200</v>
+        <v>400</v>
       </c>
       <c r="H27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1570,23 +1568,23 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>1300</v>
       </c>
       <c r="E32" s="3">
-        <v>300</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1608,26 +1606,26 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-8800</v>
       </c>
       <c r="E33" s="3">
-        <v>-2700</v>
+        <v>-16700</v>
       </c>
       <c r="F33" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>3200</v>
+        <v>400</v>
       </c>
       <c r="H33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1684,26 +1682,26 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-8800</v>
       </c>
       <c r="E35" s="3">
-        <v>-2700</v>
+        <v>-16700</v>
       </c>
       <c r="F35" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>3200</v>
+        <v>400</v>
       </c>
       <c r="H35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1731,22 +1729,22 @@
         <v>44926</v>
       </c>
       <c r="E38" s="2">
-        <v>44742</v>
+        <v>44561</v>
       </c>
       <c r="F38" s="2">
-        <v>44651</v>
+        <v>44377</v>
       </c>
       <c r="G38" s="2">
-        <v>44561</v>
+        <v>44196</v>
       </c>
       <c r="H38" s="2">
-        <v>44469</v>
-      </c>
-      <c r="I38" s="2">
-        <v>44377</v>
-      </c>
-      <c r="J38" s="2">
-        <v>44286</v>
+        <v>44012</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -1797,26 +1795,26 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
+      <c r="D41" s="3">
+        <v>11200</v>
       </c>
       <c r="E41" s="3">
-        <v>16500</v>
+        <v>4500</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>700</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
+        <v>4500</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1836,25 +1834,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1873,14 +1871,14 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>1500</v>
       </c>
       <c r="E43" s="3">
-        <v>700</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>1200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4200</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1911,14 +1909,14 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+      <c r="F44" s="3">
+        <v>2700</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1949,23 +1947,23 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>1100</v>
       </c>
       <c r="E45" s="3">
-        <v>5300</v>
+        <v>900</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1991,22 +1989,22 @@
         <v>18700</v>
       </c>
       <c r="E46" s="3">
-        <v>22700</v>
+        <v>6900</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
-      <c r="H46" s="3">
-        <v>200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>700</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
+        <v>12200</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2025,26 +2023,26 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>44900</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>44900</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>44900</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>44900</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2063,14 +2061,14 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>2300</v>
       </c>
       <c r="E48" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>4400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -2101,14 +2099,14 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>100</v>
       </c>
       <c r="E49" s="3">
-        <v>200</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2215,26 +2213,26 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2295,22 +2293,22 @@
         <v>21100</v>
       </c>
       <c r="E54" s="3">
-        <v>26500</v>
+        <v>11500</v>
       </c>
       <c r="F54" s="3">
-        <v>45000</v>
-      </c>
-      <c r="G54" s="3">
-        <v>45000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>45100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>45600</v>
-      </c>
-      <c r="J54" s="3">
-        <v>300</v>
+        <v>13200</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2361,23 +2359,23 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="F57" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1500</v>
+        <v>1200</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I57" s="3">
-        <v>300</v>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2399,26 +2397,26 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2438,13 +2436,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
-        <v>400</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>300</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2455,8 +2453,8 @@
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J59" s="3">
-        <v>200</v>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2479,22 +2477,22 @@
         <v>600</v>
       </c>
       <c r="E60" s="3">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="F60" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>300</v>
+        <v>1500</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2551,23 +2549,23 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1600</v>
+        <v>0</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2707,22 +2705,22 @@
         <v>800</v>
       </c>
       <c r="E66" s="3">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="F66" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>300</v>
+        <v>1500</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2840,16 +2838,16 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>44900</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>44900</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>44900</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>38700</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2910,25 +2908,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25300</v>
+        <v>-25300</v>
       </c>
       <c r="E72" s="3">
-        <v>-20800</v>
+        <v>-16400</v>
       </c>
       <c r="F72" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3065,22 +3063,22 @@
         <v>20300</v>
       </c>
       <c r="E76" s="3">
-        <v>25700</v>
+        <v>10100</v>
       </c>
       <c r="F76" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
+        <v>11700</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3146,22 +3144,22 @@
         <v>44926</v>
       </c>
       <c r="E80" s="2">
-        <v>44742</v>
+        <v>44561</v>
       </c>
       <c r="F80" s="2">
-        <v>44651</v>
+        <v>44377</v>
       </c>
       <c r="G80" s="2">
-        <v>44561</v>
+        <v>44196</v>
       </c>
       <c r="H80" s="2">
-        <v>44469</v>
-      </c>
-      <c r="I80" s="2">
-        <v>44377</v>
-      </c>
-      <c r="J80" s="2">
-        <v>44286</v>
+        <v>44012</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
@@ -3180,26 +3178,26 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-8800</v>
       </c>
       <c r="E81" s="3">
-        <v>-2700</v>
+        <v>-16700</v>
       </c>
       <c r="F81" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>3200</v>
+        <v>400</v>
       </c>
       <c r="H81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3235,25 +3233,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3465,20 +3463,20 @@
       <c r="D89" s="3">
         <v>-5000</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+      <c r="E89" s="3">
+        <v>-1000</v>
       </c>
       <c r="F89" s="3">
-        <v>700</v>
+        <v>-4700</v>
       </c>
       <c r="G89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
+        <v>-1000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3517,16 +3515,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-3700</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -3630,23 +3628,23 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-300</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-44900</v>
+        <v>-800</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3836,23 +3834,23 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>8200</v>
       </c>
       <c r="F100" s="3">
-        <v>-45600</v>
+        <v>8100</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3">
-        <v>45600</v>
+        <v>2900</v>
+      </c>
+      <c r="H100" s="3">
+        <v>600</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3875,25 +3873,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3912,23 +3910,23 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3200</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3">
-        <v>700</v>
+        <v>1200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/SAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="92">
   <si>
     <t>SAI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -720,37 +721,40 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -758,29 +762,32 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E9" s="3">
         <v>9500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -796,28 +803,31 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1200</v>
       </c>
       <c r="F10" s="3">
         <v>1200</v>
       </c>
       <c r="G10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -834,8 +844,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -850,29 +863,30 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -888,8 +902,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -926,28 +943,31 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>100</v>
       </c>
       <c r="F14" s="3">
         <v>100</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -955,8 +975,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -964,8 +984,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1002,8 +1025,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1015,29 +1041,30 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>18100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>33500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1053,29 +1080,32 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-16500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1091,8 +1121,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1107,29 +1140,30 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,17 +1179,20 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7200</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,8 +1220,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1221,28 +1261,31 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-16700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1259,13 +1302,16 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1274,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1288,8 +1334,8 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1297,8 +1343,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1335,28 +1384,31 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-16700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1373,28 +1425,31 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-16700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1411,8 +1466,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1449,8 +1507,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,8 +1548,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1525,8 +1589,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1563,29 +1630,32 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1601,28 +1671,31 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-16700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1639,8 +1712,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1677,28 +1753,31 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-16700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1715,34 +1794,37 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1758,8 +1840,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1774,8 +1859,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1790,22 +1876,23 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E41" s="3">
         <v>11200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>4500</v>
       </c>
       <c r="F41" s="3">
         <v>4500</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+      <c r="G41" s="3">
+        <v>4500</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1828,20 +1915,23 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E42" s="3">
         <v>4700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>100</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1854,8 +1944,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1866,23 +1956,26 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4200</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1895,8 +1988,8 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -1904,23 +1997,26 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
       </c>
       <c r="F44" s="3">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3">
         <v>2700</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1933,8 +2029,8 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -1942,23 +2038,26 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1980,23 +2079,26 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E46" s="3">
         <v>18700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12200</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,8 +2120,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2044,8 +2149,8 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
@@ -2056,23 +2161,26 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E48" s="3">
         <v>2300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>600</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,8 +2193,8 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2094,22 +2202,25 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
         <v>100</v>
-      </c>
-      <c r="E49" s="3">
-        <v>300</v>
       </c>
       <c r="F49" s="3">
         <v>300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2123,8 +2234,8 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2132,8 +2243,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2170,8 +2284,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2208,8 +2325,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2234,8 +2354,8 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2246,8 +2366,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2284,23 +2407,26 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E54" s="3">
         <v>21100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13200</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2448,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2338,8 +2467,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2354,23 +2484,24 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2392,8 +2523,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2418,8 +2552,8 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2430,23 +2564,26 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2468,23 +2605,26 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2506,8 +2646,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2544,19 +2687,22 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2582,8 +2728,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2620,8 +2769,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2658,8 +2810,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2696,23 +2851,26 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1500</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2892,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2750,8 +2911,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2788,8 +2950,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2826,8 +2991,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2864,8 +3032,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2902,23 +3073,26 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-25300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2940,8 +3114,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2978,8 +3155,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3016,8 +3196,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3054,23 +3237,26 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E76" s="3">
         <v>20300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11700</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3092,8 +3278,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3130,34 +3319,37 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3173,28 +3365,31 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-16700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3211,8 +3406,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3227,17 +3425,18 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3253,8 +3452,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3265,8 +3464,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3303,8 +3505,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3341,8 +3546,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3379,8 +3587,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3417,8 +3628,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3455,26 +3669,29 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-400</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3493,8 +3710,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3509,8 +3729,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3524,7 +3745,7 @@
         <v>-300</v>
       </c>
       <c r="G91" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -3547,8 +3768,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3585,8 +3809,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3623,26 +3850,29 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6400</v>
       </c>
-      <c r="E94" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
-        <v>-100</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3891,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3677,8 +3910,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3715,8 +3949,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3753,8 +3990,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3791,8 +4031,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3829,26 +4072,29 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
         <v>18500</v>
       </c>
-      <c r="E100" s="3">
-        <v>8200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>8100</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>2900</v>
       </c>
-      <c r="H100" s="3">
-        <v>600</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,34 +4113,37 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -3905,26 +4154,29 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>6700</v>
       </c>
-      <c r="E102" s="3">
-        <v>3200</v>
-      </c>
-      <c r="F102" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3941,6 +4193,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
